--- a/data/trans_orig/DCD-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>10910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5951</v>
+        <v>5605</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18792</v>
+        <v>18519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03701664267832733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02019181110775654</v>
+        <v>0.01901564068179562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06375821610912492</v>
+        <v>0.06283294868105806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -764,19 +764,19 @@
         <v>52392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39300</v>
+        <v>38888</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66659</v>
+        <v>67806</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1823960511605887</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1368167589177156</v>
+        <v>0.1353810411887411</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2320640030157157</v>
+        <v>0.2360557556894074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -785,19 +785,19 @@
         <v>63303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46807</v>
+        <v>49642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79645</v>
+        <v>82145</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1087704671084465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08042627195485873</v>
+        <v>0.0852975936051356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.136851315079686</v>
+        <v>0.1411466244451622</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>283828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275946</v>
+        <v>276219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288787</v>
+        <v>289133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9629833573216726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9362417838908751</v>
+        <v>0.9371670513189433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9798081888922442</v>
+        <v>0.9809843593182046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -835,19 +835,19 @@
         <v>234853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220586</v>
+        <v>219439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247945</v>
+        <v>248357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8176039488394112</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7679359969842843</v>
+        <v>0.7639442443105927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8631832410822844</v>
+        <v>0.8646189588112591</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -856,19 +856,19 @@
         <v>518680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>502338</v>
+        <v>499838</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>535176</v>
+        <v>532341</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8912295328915535</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8631486849203136</v>
+        <v>0.8588533755548379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.919573728045141</v>
+        <v>0.9147024063948644</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>29112</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18954</v>
+        <v>20003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41646</v>
+        <v>44176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05758703969438617</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03749266133477001</v>
+        <v>0.03956886910568953</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08238118312966448</v>
+        <v>0.08738632949341836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -981,19 +981,19 @@
         <v>76234</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60006</v>
+        <v>60520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93576</v>
+        <v>94283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1455497599768876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1145659842483219</v>
+        <v>0.1155475885625537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1786600768317582</v>
+        <v>0.1800094502436969</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -1002,19 +1002,19 @@
         <v>105346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86337</v>
+        <v>85835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126643</v>
+        <v>127154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1023476934997882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08387989749238893</v>
+        <v>0.08339261080260217</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1230392624948388</v>
+        <v>0.1235357658711951</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>476415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>463881</v>
+        <v>461351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486573</v>
+        <v>485524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9424129603056138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9176188168703352</v>
+        <v>0.9126136705065812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9625073386652298</v>
+        <v>0.9604311308943101</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>408</v>
@@ -1052,19 +1052,19 @@
         <v>447531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>430189</v>
+        <v>429482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463759</v>
+        <v>463245</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8544502400231123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8213399231682413</v>
+        <v>0.8199905497563031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.885434015751678</v>
+        <v>0.8844524114374464</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>855</v>
@@ -1073,19 +1073,19 @@
         <v>923946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>902649</v>
+        <v>902138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>942955</v>
+        <v>943457</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8976523065002118</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8769607375051611</v>
+        <v>0.8764642341288048</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9161201025076111</v>
+        <v>0.9166073891973977</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>18082</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11172</v>
+        <v>10792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28941</v>
+        <v>28187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05579950862175336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03447584036295571</v>
+        <v>0.03330406304074001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08931179539969296</v>
+        <v>0.08698328122760648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1198,19 +1198,19 @@
         <v>42948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31537</v>
+        <v>31206</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57742</v>
+        <v>57571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1259395681734099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09247714694568338</v>
+        <v>0.09150797979401207</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1693215991775346</v>
+        <v>0.1688191104055814</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1219,19 +1219,19 @@
         <v>61030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46545</v>
+        <v>45796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77718</v>
+        <v>77057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09176460585898502</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06998620991031387</v>
+        <v>0.06885932824675124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1168580877210313</v>
+        <v>0.1158634749056505</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>305964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295105</v>
+        <v>295859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312874</v>
+        <v>313254</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9442004913782467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9106882046003071</v>
+        <v>0.9130167187723937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9655241596370443</v>
+        <v>0.96669593695926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -1269,19 +1269,19 @@
         <v>298072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283278</v>
+        <v>283449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>309483</v>
+        <v>309814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8740604318265901</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8306784008224654</v>
+        <v>0.8311808895944186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9075228530543167</v>
+        <v>0.908492020205988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -1290,19 +1290,19 @@
         <v>604036</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587348</v>
+        <v>588009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618521</v>
+        <v>619270</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.908235394141015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8831419122789689</v>
+        <v>0.8841365250943496</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9300137900896861</v>
+        <v>0.9311406717532488</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>28291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18456</v>
+        <v>18306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41892</v>
+        <v>40835</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07564697059150782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04934889131827053</v>
+        <v>0.04894803342563379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.112017100758797</v>
+        <v>0.1091885298978948</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1415,19 +1415,19 @@
         <v>75437</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60358</v>
+        <v>60621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92493</v>
+        <v>91777</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1939491372302686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1551815189539428</v>
+        <v>0.1558577042396117</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2378017332547957</v>
+        <v>0.2359613730649229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1436,19 +1436,19 @@
         <v>103727</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85886</v>
+        <v>85864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123476</v>
+        <v>123268</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1359586085026248</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1125729517419425</v>
+        <v>0.1125443929817644</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1618444816638474</v>
+        <v>0.1615713682025221</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>345691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>332090</v>
+        <v>333147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355526</v>
+        <v>355676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9243530294084922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8879828992412029</v>
+        <v>0.8908114701021053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9506511086817291</v>
+        <v>0.9510519665743663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -1486,19 +1486,19 @@
         <v>313514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296458</v>
+        <v>297174</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328593</v>
+        <v>328330</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8060508627697314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7621982667452042</v>
+        <v>0.7640386269350771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8448184810460572</v>
+        <v>0.8441422957603884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>618</v>
@@ -1507,19 +1507,19 @@
         <v>659206</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>639457</v>
+        <v>639665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>677047</v>
+        <v>677069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8640413914973752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8381555183361524</v>
+        <v>0.8384286317974777</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8874270482580574</v>
+        <v>0.8874556070182353</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>28997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18454</v>
+        <v>19972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40612</v>
+        <v>40722</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1363822270719384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08679321528586673</v>
+        <v>0.09393369057721303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1910083802802904</v>
+        <v>0.1915279496574187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -1632,19 +1632,19 @@
         <v>72612</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59512</v>
+        <v>58233</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85779</v>
+        <v>86314</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3306703952211107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2710111741110114</v>
+        <v>0.2651898822447383</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3906285495090059</v>
+        <v>0.3930651635173605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -1653,19 +1653,19 @@
         <v>101610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84921</v>
+        <v>84978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120225</v>
+        <v>120620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2350935663688994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1964821581445215</v>
+        <v>0.1966123449127321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.278163190222719</v>
+        <v>0.2790783153610461</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>183621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172006</v>
+        <v>171896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194164</v>
+        <v>192646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8636177729280615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8089916197197092</v>
+        <v>0.8084720503425812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9132067847141332</v>
+        <v>0.9060663094227869</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -1703,19 +1703,19 @@
         <v>146979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133812</v>
+        <v>133277</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160079</v>
+        <v>161358</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6693296047788893</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6093714504909939</v>
+        <v>0.6069348364826394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7289888258889885</v>
+        <v>0.7348101177552614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>312</v>
@@ -1724,19 +1724,19 @@
         <v>330599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>311984</v>
+        <v>311589</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347288</v>
+        <v>347231</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7649064336311006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.721836809777281</v>
+        <v>0.7209216846389538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8035178418554785</v>
+        <v>0.8033876550872677</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>30139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19950</v>
+        <v>20122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41494</v>
+        <v>42859</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1100039510862031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07281686045963522</v>
+        <v>0.07344162407148581</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1514483954337155</v>
+        <v>0.156431186837688</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1849,19 +1849,19 @@
         <v>45813</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33907</v>
+        <v>34893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58354</v>
+        <v>60170</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.163600030129459</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1210838783006943</v>
+        <v>0.1246033002683608</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2083835820490816</v>
+        <v>0.2148702655936816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -1870,19 +1870,19 @@
         <v>75952</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60508</v>
+        <v>61579</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93795</v>
+        <v>94086</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1370946340735067</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1092183432338089</v>
+        <v>0.1111509797023005</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1693021370788908</v>
+        <v>0.1698272868213285</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>243842</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232487</v>
+        <v>231122</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254031</v>
+        <v>253859</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8899960489137969</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8485516045662846</v>
+        <v>0.8435688131623118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9271831395403648</v>
+        <v>0.9265583759285141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -1920,19 +1920,19 @@
         <v>234218</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221677</v>
+        <v>219861</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246124</v>
+        <v>245138</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.836399969870541</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7916164179509186</v>
+        <v>0.7851297344063183</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8789161216993059</v>
+        <v>0.875396699731639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>459</v>
@@ -1941,19 +1941,19 @@
         <v>478060</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>460217</v>
+        <v>459926</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>493504</v>
+        <v>492433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8629053659264933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8306978629211093</v>
+        <v>0.8301727131786714</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8907816567661911</v>
+        <v>0.8888490202976995</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>40387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29208</v>
+        <v>28583</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53769</v>
+        <v>54219</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0609350908122815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04406911665306692</v>
+        <v>0.04312531335393696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08112545495405014</v>
+        <v>0.0818049149311922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>96</v>
@@ -2066,19 +2066,19 @@
         <v>107590</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87828</v>
+        <v>88286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129807</v>
+        <v>127472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1550611887009535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1265803722348327</v>
+        <v>0.1272408384708869</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1870819208618713</v>
+        <v>0.1837156402079173</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>136</v>
@@ -2087,19 +2087,19 @@
         <v>147977</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126312</v>
+        <v>127098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171907</v>
+        <v>176498</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.109075809073426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09310652759030931</v>
+        <v>0.09368595447812288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1267153765549931</v>
+        <v>0.1300992646068854</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>622401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>609019</v>
+        <v>608569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>633580</v>
+        <v>634205</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9390649091877185</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9188745450459498</v>
+        <v>0.9181950850688075</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.955930883346933</v>
+        <v>0.9568746866460628</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>540</v>
@@ -2137,19 +2137,19 @@
         <v>586263</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>564046</v>
+        <v>566381</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>606025</v>
+        <v>605567</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8449388112990465</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8129180791381286</v>
+        <v>0.8162843597920826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8734196277651669</v>
+        <v>0.8727591615291131</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1118</v>
@@ -2158,19 +2158,19 @@
         <v>1208664</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1184734</v>
+        <v>1180143</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1230329</v>
+        <v>1229543</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.890924190926574</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8732846234450059</v>
+        <v>0.8699007353931145</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9068934724096904</v>
+        <v>0.9063140455218771</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>42352</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30573</v>
+        <v>31520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56573</v>
+        <v>57110</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05436078447236953</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03924146921773618</v>
+        <v>0.04045708062990552</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07261302496398761</v>
+        <v>0.07330330693228224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>98</v>
@@ -2283,19 +2283,19 @@
         <v>107208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>88936</v>
+        <v>88594</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128569</v>
+        <v>131418</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1301296844419178</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1079515124430038</v>
+        <v>0.1075366310207758</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1560578473656346</v>
+        <v>0.1595164917696442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -2304,19 +2304,19 @@
         <v>149560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125562</v>
+        <v>126879</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>173464</v>
+        <v>174153</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09330297615576591</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07833184329690913</v>
+        <v>0.07915356680286605</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1082155245810611</v>
+        <v>0.1086450383977803</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>736746</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>722525</v>
+        <v>721988</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>748525</v>
+        <v>747578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9456392155276304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9273869750360124</v>
+        <v>0.9266966930677177</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9607585307822638</v>
+        <v>0.9595429193700945</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>659</v>
@@ -2354,19 +2354,19 @@
         <v>716645</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>695284</v>
+        <v>692435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>734917</v>
+        <v>735259</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8698703155580823</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8439421526343652</v>
+        <v>0.8404835082303558</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8920484875569962</v>
+        <v>0.8924633689792242</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1336</v>
@@ -2375,19 +2375,19 @@
         <v>1453391</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1429487</v>
+        <v>1428798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1477389</v>
+        <v>1476072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9066970238442341</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.891784475418939</v>
+        <v>0.8913549616022197</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9216681567030909</v>
+        <v>0.920846433197134</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>228270</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>201715</v>
+        <v>199453</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>259194</v>
+        <v>258846</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06661358250945129</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05886419902711722</v>
+        <v>0.05820421111470865</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07563779031655364</v>
+        <v>0.07553627819715771</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>536</v>
@@ -2500,19 +2500,19 @@
         <v>580234</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>536139</v>
+        <v>538844</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>625414</v>
+        <v>625041</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1630644134729959</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1506723377128215</v>
+        <v>0.1514326321269351</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1757615556231975</v>
+        <v>0.1756567128164644</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>748</v>
@@ -2521,19 +2521,19 @@
         <v>808504</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>749772</v>
+        <v>749628</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>860427</v>
+        <v>857570</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1157470896223154</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1073389647459468</v>
+        <v>0.1073182729257103</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1231805104111187</v>
+        <v>0.1227714926479408</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3198509</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3167585</v>
+        <v>3167933</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3225064</v>
+        <v>3227326</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9333864174905487</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9243622096834463</v>
+        <v>0.9244637218028422</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9411358009728827</v>
+        <v>0.9417957888852914</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2762</v>
@@ -2571,19 +2571,19 @@
         <v>2978075</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2932895</v>
+        <v>2933268</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3022170</v>
+        <v>3019465</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8369355865270041</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8242384443768026</v>
+        <v>0.8243432871835357</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8493276622871785</v>
+        <v>0.848567367873065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5759</v>
@@ -2592,19 +2592,19 @@
         <v>6176584</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6124661</v>
+        <v>6127518</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6235316</v>
+        <v>6235460</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8842529103776846</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8768194895888815</v>
+        <v>0.8772285073520593</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8926610352540534</v>
+        <v>0.8926817270742896</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>17203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10128</v>
+        <v>10293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27423</v>
+        <v>27967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05855996512464385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03447562469940114</v>
+        <v>0.03503846521210521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09335257620609688</v>
+        <v>0.09520193912858815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -2961,19 +2961,19 @@
         <v>62030</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48726</v>
+        <v>47823</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77096</v>
+        <v>75237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2148582376124858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1687761375323911</v>
+        <v>0.1656489053153716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2670411838537387</v>
+        <v>0.260602713300993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -2982,19 +2982,19 @@
         <v>79233</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64334</v>
+        <v>62282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99871</v>
+        <v>97184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1360304698878612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1104512673747885</v>
+        <v>0.1069287183791905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1714624950578596</v>
+        <v>0.166850578751973</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>276558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266338</v>
+        <v>265794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283633</v>
+        <v>283468</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9414400348753561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9066474237939028</v>
+        <v>0.9047980608714117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9655243753005988</v>
+        <v>0.9649615347878946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -3032,19 +3032,19 @@
         <v>226673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>211607</v>
+        <v>213466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239977</v>
+        <v>240880</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7851417623875142</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7329588161462612</v>
+        <v>0.7393972866990067</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8312238624676089</v>
+        <v>0.8343510946846283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>471</v>
@@ -3053,19 +3053,19 @@
         <v>503231</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>482593</v>
+        <v>485280</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518130</v>
+        <v>520182</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8639695301121387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8285375049421404</v>
+        <v>0.8331494212480269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8895487326252115</v>
+        <v>0.8930712816208094</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>21104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13923</v>
+        <v>13233</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31365</v>
+        <v>31641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0419926443928949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02770377883745863</v>
+        <v>0.02633046629872153</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06240870586930439</v>
+        <v>0.06295743657535732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -3178,19 +3178,19 @@
         <v>38404</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27064</v>
+        <v>26800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51141</v>
+        <v>52128</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0734186440651295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05173943002149763</v>
+        <v>0.05123529897158809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09776755086653216</v>
+        <v>0.09965499657298421</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -3199,19 +3199,19 @@
         <v>59509</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45496</v>
+        <v>44345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76540</v>
+        <v>75898</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05801983453901415</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04435794683108069</v>
+        <v>0.04323543450329913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07462563553675737</v>
+        <v>0.07399971559930134</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>481471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471210</v>
+        <v>470934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>488652</v>
+        <v>489342</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9580073556071051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9375912941306958</v>
+        <v>0.9370425634246428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9722962211625413</v>
+        <v>0.9736695337012787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -3249,19 +3249,19 @@
         <v>484680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471943</v>
+        <v>470956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496020</v>
+        <v>496284</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9265813559348705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.902232449133468</v>
+        <v>0.9003450034270151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9482605699785027</v>
+        <v>0.9487647010284118</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>903</v>
@@ -3270,19 +3270,19 @@
         <v>966150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>949119</v>
+        <v>949761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>980163</v>
+        <v>981314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9419801654609858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9253743644632426</v>
+        <v>0.9260002844006988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9556420531689194</v>
+        <v>0.9567645654967011</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>16448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9794</v>
+        <v>10263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25400</v>
+        <v>25549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05163174897354061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03074306469725911</v>
+        <v>0.03221577200258996</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0797337154462906</v>
+        <v>0.08020147193015423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3395,19 +3395,19 @@
         <v>42408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31078</v>
+        <v>30759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57699</v>
+        <v>57737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1260974483002098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09240940477243266</v>
+        <v>0.09146100868364392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1715640491221069</v>
+        <v>0.1716788383011826</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -3416,19 +3416,19 @@
         <v>58856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45657</v>
+        <v>44028</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75779</v>
+        <v>73403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08987343369281314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06971867882894225</v>
+        <v>0.06723192167831435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1157157838267015</v>
+        <v>0.1120879158486482</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>302117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>293165</v>
+        <v>293016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308771</v>
+        <v>308302</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9483682510264594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9202662845537096</v>
+        <v>0.9197985280698456</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.969256935302741</v>
+        <v>0.96778422799741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>294</v>
@@ -3466,19 +3466,19 @@
         <v>293901</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>278610</v>
+        <v>278572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>305231</v>
+        <v>305550</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8739025516997903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.828435950877891</v>
+        <v>0.8283211616988174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9075905952275674</v>
+        <v>0.9085389913163562</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -3487,19 +3487,19 @@
         <v>596018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>579095</v>
+        <v>581471</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609217</v>
+        <v>610846</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9101265663071868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.884284216173298</v>
+        <v>0.8879120841513518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9302813211710577</v>
+        <v>0.9327680783216857</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>33106</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22779</v>
+        <v>24034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45696</v>
+        <v>46041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08948402924524811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06157081052943521</v>
+        <v>0.06496408400431504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1235152228794359</v>
+        <v>0.1244465329578938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3612,19 +3612,19 @@
         <v>68610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52867</v>
+        <v>52665</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84831</v>
+        <v>85364</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1771564254003717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1365066451533546</v>
+        <v>0.1359849465526352</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2190401491637788</v>
+        <v>0.2204186866921266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -3633,19 +3633,19 @@
         <v>101716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83671</v>
+        <v>82484</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121898</v>
+        <v>120533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1343228053883501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1104937985101272</v>
+        <v>0.1089266501413272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1609748165796586</v>
+        <v>0.1591728214205651</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>336858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>324268</v>
+        <v>323923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>347185</v>
+        <v>345930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9105159707547519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8764847771205644</v>
+        <v>0.8755534670421055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9384291894705652</v>
+        <v>0.9350359159956848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>297</v>
@@ -3683,19 +3683,19 @@
         <v>318673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>302452</v>
+        <v>301919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334416</v>
+        <v>334618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8228435745996283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7809598508362214</v>
+        <v>0.7795813133078735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8634933548466456</v>
+        <v>0.8640150534473648</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -3704,19 +3704,19 @@
         <v>655531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>635349</v>
+        <v>636714</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>673576</v>
+        <v>674763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8656771946116499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8390251834203413</v>
+        <v>0.8408271785794349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8895062014898727</v>
+        <v>0.8910733498586727</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>17437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10320</v>
+        <v>10869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26747</v>
+        <v>26599</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0825555023603637</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04885849225612952</v>
+        <v>0.05145891432962171</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1266323322814809</v>
+        <v>0.1259295913938756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3829,19 +3829,19 @@
         <v>36519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26529</v>
+        <v>26739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48231</v>
+        <v>49778</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1670670922715246</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1213679358061699</v>
+        <v>0.1223287112625835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2206506366950576</v>
+        <v>0.2277260721487717</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3850,19 +3850,19 @@
         <v>53956</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40870</v>
+        <v>40992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68261</v>
+        <v>69221</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1255354724371159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09508937143831589</v>
+        <v>0.09537294276190324</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1588176967819277</v>
+        <v>0.1610500400267178</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>193784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184474</v>
+        <v>184622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200901</v>
+        <v>200352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9174444976396363</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.873367667718519</v>
+        <v>0.8740704086061243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9511415077438701</v>
+        <v>0.9485410856703783</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -3900,19 +3900,19 @@
         <v>182068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170356</v>
+        <v>168809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192058</v>
+        <v>191848</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8329329077284754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7793493633049426</v>
+        <v>0.7722739278512283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8786320641938302</v>
+        <v>0.8776712887374165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>382</v>
@@ -3921,19 +3921,19 @@
         <v>375852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>361547</v>
+        <v>360587</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388938</v>
+        <v>388816</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8744645275628841</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8411823032180722</v>
+        <v>0.8389499599732831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.904910628561684</v>
+        <v>0.9046270572380969</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>18839</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11325</v>
+        <v>12161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28724</v>
+        <v>28945</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07159766694743848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04304004327980245</v>
+        <v>0.04621814701488668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.109163951488138</v>
+        <v>0.1100041277031439</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -4046,19 +4046,19 @@
         <v>36759</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26114</v>
+        <v>26847</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48932</v>
+        <v>49806</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1345933452629869</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0956161737843953</v>
+        <v>0.09829921232387101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1791635322821571</v>
+        <v>0.1823643160458781</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -4067,19 +4067,19 @@
         <v>55598</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42680</v>
+        <v>42175</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71839</v>
+        <v>73144</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1036824217072468</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07959152069777582</v>
+        <v>0.07864929479672816</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.133968892229008</v>
+        <v>0.1364026578152007</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>244284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234399</v>
+        <v>234178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251798</v>
+        <v>250962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9284023330525615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8908360485118622</v>
+        <v>0.8899958722968562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9569599567201977</v>
+        <v>0.9537818529851134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>230</v>
@@ -4117,19 +4117,19 @@
         <v>236356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224183</v>
+        <v>223309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247001</v>
+        <v>246268</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8654066547370132</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8208364677178429</v>
+        <v>0.817635683954122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9043838262156046</v>
+        <v>0.901700787676129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>471</v>
@@ -4138,19 +4138,19 @@
         <v>480640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464399</v>
+        <v>463094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>493558</v>
+        <v>494063</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8963175782927532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8660311077709919</v>
+        <v>0.8635973421847992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9204084793022241</v>
+        <v>0.9213507052032717</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>52261</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39348</v>
+        <v>40751</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70079</v>
+        <v>69493</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07959841118949992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05993081026936516</v>
+        <v>0.06206744730335817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1067365861532386</v>
+        <v>0.1058442307943477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -4263,19 +4263,19 @@
         <v>85171</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68557</v>
+        <v>69635</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105515</v>
+        <v>105898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1232049438541837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09917146561028381</v>
+        <v>0.1007320324387718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1526342227893903</v>
+        <v>0.1531883035762583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -4284,19 +4284,19 @@
         <v>137432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115245</v>
+        <v>116031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161113</v>
+        <v>161479</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.101963577741453</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08550275030562576</v>
+        <v>0.08608579613434317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1195334706255413</v>
+        <v>0.1198044450013333</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>604297</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>586479</v>
+        <v>587065</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>617210</v>
+        <v>615807</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9204015888105</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8932634138467614</v>
+        <v>0.8941557692056527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9400691897306348</v>
+        <v>0.9379325526966423</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>569</v>
@@ -4334,19 +4334,19 @@
         <v>606123</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>585779</v>
+        <v>585396</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622737</v>
+        <v>621659</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8767950561458163</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8473657772106096</v>
+        <v>0.8468116964237417</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.900828534389716</v>
+        <v>0.8992679675612282</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1103</v>
@@ -4355,19 +4355,19 @@
         <v>1210420</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1186739</v>
+        <v>1186373</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1232607</v>
+        <v>1231821</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.898036422258547</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8804665293744589</v>
+        <v>0.8801955549986669</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9144972496943742</v>
+        <v>0.913914203865657</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>51628</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38553</v>
+        <v>38573</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66946</v>
+        <v>67134</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06630982869432903</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04951686881831524</v>
+        <v>0.04954217120816247</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08598438120512721</v>
+        <v>0.08622619368012707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -4480,19 +4480,19 @@
         <v>92603</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74399</v>
+        <v>74107</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113576</v>
+        <v>114286</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1120876889401802</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0900531001263352</v>
+        <v>0.08969979557020541</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1374739350363467</v>
+        <v>0.1383326207960469</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>129</v>
@@ -4501,19 +4501,19 @@
         <v>144231</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124295</v>
+        <v>120344</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168452</v>
+        <v>169165</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0898774607775677</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07745412791851337</v>
+        <v>0.07499235350271692</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1049707202822699</v>
+        <v>0.1054153761998149</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>726955</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>711637</v>
+        <v>711449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>740030</v>
+        <v>740010</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.933690171305671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9140156187948727</v>
+        <v>0.9137738063198729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9504831311816848</v>
+        <v>0.9504578287918376</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>676</v>
@@ -4551,19 +4551,19 @@
         <v>733564</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>712591</v>
+        <v>711881</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>751768</v>
+        <v>752060</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8879123110598198</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8625260649636529</v>
+        <v>0.8616673792039532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9099468998736645</v>
+        <v>0.9103002044297945</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1376</v>
@@ -4572,19 +4572,19 @@
         <v>1460519</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1436298</v>
+        <v>1435585</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1480455</v>
+        <v>1484406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9101225392224322</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8950292797177303</v>
+        <v>0.8945846238001851</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9225458720814866</v>
+        <v>0.9250076464972832</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>228026</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>200957</v>
+        <v>198061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>258272</v>
+        <v>259806</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06717814695155318</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05920348655569497</v>
+        <v>0.0583502555889354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07608892194863291</v>
+        <v>0.07654085190246197</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>416</v>
@@ -4697,19 +4697,19 @@
         <v>462504</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>419159</v>
+        <v>422255</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>501740</v>
+        <v>505256</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1304833906028542</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1182547476009358</v>
+        <v>0.1191281939959602</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1415528757413859</v>
+        <v>0.1425448884298514</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>633</v>
@@ -4718,19 +4718,19 @@
         <v>690530</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>641009</v>
+        <v>635683</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>742323</v>
+        <v>740039</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09951588672539331</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09237912693623766</v>
+        <v>0.09161158618356394</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1069800333982346</v>
+        <v>0.1066509541043104</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>3166324</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3136078</v>
+        <v>3134544</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3193393</v>
+        <v>3196289</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9328218530484468</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.923911078051367</v>
+        <v>0.923459148097538</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.940796513444305</v>
+        <v>0.9416497444110645</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2922</v>
@@ -4768,19 +4768,19 @@
         <v>3082038</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3042802</v>
+        <v>3039286</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3125383</v>
+        <v>3122287</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8695166093971458</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8584471242586141</v>
+        <v>0.8574551115701486</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8817452523990644</v>
+        <v>0.8808718060040397</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5936</v>
@@ -4789,19 +4789,19 @@
         <v>6248362</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6196569</v>
+        <v>6198853</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6297883</v>
+        <v>6303209</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9004841132746066</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8930199666017654</v>
+        <v>0.8933490458956896</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9076208730637624</v>
+        <v>0.9083884138164361</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>29917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21702</v>
+        <v>21816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40072</v>
+        <v>42054</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09383078420987209</v>
+        <v>0.09383078420987211</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06806361504856746</v>
+        <v>0.06842076530006819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1256794720774374</v>
+        <v>0.1318960034120944</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -5158,19 +5158,19 @@
         <v>54355</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44430</v>
+        <v>44106</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65904</v>
+        <v>65305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1719770165874918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1405753228415476</v>
+        <v>0.1395479662432063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2085167698626989</v>
+        <v>0.2066209975140652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -5179,19 +5179,19 @@
         <v>84273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72035</v>
+        <v>70372</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98615</v>
+        <v>99546</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.132732529358261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1134571002321154</v>
+        <v>0.1108384783744433</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1553219263824898</v>
+        <v>0.1567890510893445</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>288928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278773</v>
+        <v>276791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297143</v>
+        <v>297029</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9061692157901278</v>
+        <v>0.906169215790128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8743205279225623</v>
+        <v>0.8681039965879057</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9319363849514326</v>
+        <v>0.9315792346999319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>437</v>
@@ -5229,19 +5229,19 @@
         <v>261706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250157</v>
+        <v>250756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271631</v>
+        <v>271955</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8280229834125082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7914832301373013</v>
+        <v>0.793379002485935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8594246771584525</v>
+        <v>0.8604520337567938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>732</v>
@@ -5250,19 +5250,19 @@
         <v>550633</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536291</v>
+        <v>535360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562871</v>
+        <v>564534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.867267470641739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8446780736175102</v>
+        <v>0.8432109489106554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8865428997678844</v>
+        <v>0.8891615216255567</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>61815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46896</v>
+        <v>46213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78998</v>
+        <v>80232</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.116490268780167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08837522189412143</v>
+        <v>0.08708771541246466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1488708593316825</v>
+        <v>0.1511963569023574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -5375,19 +5375,19 @@
         <v>146076</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127748</v>
+        <v>128792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>164931</v>
+        <v>163197</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2672974087414027</v>
+        <v>0.2672974087414026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2337597231797462</v>
+        <v>0.235668874086866</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3017977870596019</v>
+        <v>0.2986246804856183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>257</v>
@@ -5396,19 +5396,19 @@
         <v>207892</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183983</v>
+        <v>182936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235265</v>
+        <v>235372</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1930032066382584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1708070099070479</v>
+        <v>0.1698348106229852</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2184161027969369</v>
+        <v>0.2185152933810005</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>468832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451649</v>
+        <v>450415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>483751</v>
+        <v>484434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8835097312198329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8511291406683186</v>
+        <v>0.8488036430976424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9116247781058792</v>
+        <v>0.9129122845875351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>511</v>
@@ -5446,19 +5446,19 @@
         <v>400418</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>381563</v>
+        <v>383297</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>418746</v>
+        <v>417702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7327025912585974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6982022129403981</v>
+        <v>0.7013753195143818</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7662402768202541</v>
+        <v>0.764331125913134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>842</v>
@@ -5467,19 +5467,19 @@
         <v>869249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>841876</v>
+        <v>841769</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>893158</v>
+        <v>894205</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8069967933617417</v>
+        <v>0.8069967933617416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.781583897203063</v>
+        <v>0.7814847066189995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8291929900929522</v>
+        <v>0.830165189377015</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>46709</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35572</v>
+        <v>36937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57515</v>
+        <v>59108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1478177658634172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1125727512455222</v>
+        <v>0.1168909154866939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1820139388658787</v>
+        <v>0.1870534946616507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -5592,19 +5592,19 @@
         <v>92182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79345</v>
+        <v>80290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105935</v>
+        <v>106433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2586609168859111</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2226398328266926</v>
+        <v>0.2252923782103188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2972534625879727</v>
+        <v>0.2986484751502867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -5613,19 +5613,19 @@
         <v>138891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121724</v>
+        <v>122033</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156182</v>
+        <v>159376</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2065683802002243</v>
+        <v>0.2065683802002242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1810361608092709</v>
+        <v>0.1814958816957246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2322838862538555</v>
+        <v>0.2370345314387993</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>269284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258478</v>
+        <v>256885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>280421</v>
+        <v>279056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8521822341365828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8179860611341213</v>
+        <v>0.81294650533835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8874272487544779</v>
+        <v>0.8831090845133067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>379</v>
@@ -5663,19 +5663,19 @@
         <v>264199</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>250446</v>
+        <v>249948</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277036</v>
+        <v>276091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7413390831140889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7027465374120271</v>
+        <v>0.7013515248497133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7773601671733072</v>
+        <v>0.7747076217896812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>676</v>
@@ -5684,19 +5684,19 @@
         <v>533484</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516193</v>
+        <v>512999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>550651</v>
+        <v>550342</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7934316197997758</v>
+        <v>0.7934316197997757</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7677161137461443</v>
+        <v>0.7629654685612004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.818963839190729</v>
+        <v>0.8185041183042754</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>49329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36950</v>
+        <v>37118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65278</v>
+        <v>65138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1321976984895372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09902189704409689</v>
+        <v>0.0994735749287239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1749412695304098</v>
+        <v>0.1745658395051826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -5809,19 +5809,19 @@
         <v>112937</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97727</v>
+        <v>98246</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130358</v>
+        <v>133272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2676479043640249</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2316024083612725</v>
+        <v>0.2328318571965095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3089329340835916</v>
+        <v>0.3158393059408434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -5830,19 +5830,19 @@
         <v>162266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142060</v>
+        <v>140658</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184704</v>
+        <v>184740</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2040808360314372</v>
+        <v>0.2040808360314371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1786679248770389</v>
+        <v>0.1769045992272764</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2323011076090095</v>
+        <v>0.2323461086295695</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>323816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>307867</v>
+        <v>308007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336195</v>
+        <v>336027</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8678023015104628</v>
+        <v>0.8678023015104627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8250587304695901</v>
+        <v>0.8254341604948174</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9009781029559031</v>
+        <v>0.9005264250712761</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>413</v>
@@ -5880,19 +5880,19 @@
         <v>309024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>291603</v>
+        <v>288689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324234</v>
+        <v>323715</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.732352095635975</v>
+        <v>0.7323520956359751</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6910670659164083</v>
+        <v>0.6841606940591566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7683975916387275</v>
+        <v>0.7671681428034904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>651</v>
@@ -5901,19 +5901,19 @@
         <v>632841</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>610403</v>
+        <v>610367</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>653047</v>
+        <v>654449</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7959191639685628</v>
+        <v>0.7959191639685627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7676988923909903</v>
+        <v>0.7676538913704306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8213320751229611</v>
+        <v>0.8230954007727239</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>19243</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13034</v>
+        <v>13636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26914</v>
+        <v>27326</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09356301070126007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06337414452718229</v>
+        <v>0.06630079449123842</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1308638499326525</v>
+        <v>0.1328659762733656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -6026,19 +6026,19 @@
         <v>44197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36176</v>
+        <v>36202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52718</v>
+        <v>53304</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1930683624654406</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1580284878688372</v>
+        <v>0.1581430501004243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2302903485437781</v>
+        <v>0.2328540728337549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -6047,19 +6047,19 @@
         <v>63439</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53340</v>
+        <v>54118</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74052</v>
+        <v>75063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1459777658467943</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1227376195176761</v>
+        <v>0.1245297161936561</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.170397793735403</v>
+        <v>0.1727257412862604</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>186422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178751</v>
+        <v>178339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192631</v>
+        <v>192029</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9064369892987399</v>
+        <v>0.9064369892987401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8691361500673473</v>
+        <v>0.8671340237266344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9366258554728178</v>
+        <v>0.9336992055087616</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>394</v>
@@ -6097,19 +6097,19 @@
         <v>184721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176200</v>
+        <v>175614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192742</v>
+        <v>192716</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8069316375345595</v>
+        <v>0.8069316375345594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7697096514562222</v>
+        <v>0.7671459271662453</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8419715121311627</v>
+        <v>0.8418569498995763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>643</v>
@@ -6118,19 +6118,19 @@
         <v>371143</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>360530</v>
+        <v>359519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>381242</v>
+        <v>380464</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8540222341532057</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.829602206264597</v>
+        <v>0.8272742587137389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.877262380482324</v>
+        <v>0.8754702838063433</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>49632</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39649</v>
+        <v>39529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60843</v>
+        <v>60109</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1833419441786204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1464663688580647</v>
+        <v>0.1460223574329995</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2247545270348723</v>
+        <v>0.2220458391287055</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -6243,19 +6243,19 @@
         <v>86410</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75655</v>
+        <v>75777</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98764</v>
+        <v>97957</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3276223169407007</v>
+        <v>0.3276223169407005</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2868426345959403</v>
+        <v>0.2873060927807657</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3744611012254868</v>
+        <v>0.3714000255863802</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>260</v>
@@ -6264,19 +6264,19 @@
         <v>136042</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119282</v>
+        <v>121596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152167</v>
+        <v>151708</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2545431280433633</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2231830385693636</v>
+        <v>0.2275139381019905</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2847134440173418</v>
+        <v>0.2838552862592723</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>221075</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209864</v>
+        <v>210598</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231058</v>
+        <v>231178</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8166580558213796</v>
+        <v>0.8166580558213795</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7752454729651275</v>
+        <v>0.7779541608712949</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8535336311419353</v>
+        <v>0.8539776425670005</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>284</v>
@@ -6314,19 +6314,19 @@
         <v>177340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164986</v>
+        <v>165793</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>188095</v>
+        <v>187973</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6723776830592995</v>
+        <v>0.6723776830592991</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6255388987745133</v>
+        <v>0.6285999744136198</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7131573654040598</v>
+        <v>0.7126939072192343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>571</v>
@@ -6335,19 +6335,19 @@
         <v>398415</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>382290</v>
+        <v>382749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>415175</v>
+        <v>412861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7454568719566366</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7152865559826583</v>
+        <v>0.7161447137407275</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7768169614306356</v>
+        <v>0.7724860618980092</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>116428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97243</v>
+        <v>97541</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140248</v>
+        <v>139031</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1617763983500479</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1351178221411958</v>
+        <v>0.1355331437773822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1948736466125416</v>
+        <v>0.1931829679294972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>356</v>
@@ -6460,19 +6460,19 @@
         <v>280716</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256716</v>
+        <v>256955</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>305408</v>
+        <v>305199</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3635946684042395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3325086121265293</v>
+        <v>0.3328188852126273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3955771835690606</v>
+        <v>0.3953065695084159</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>465</v>
@@ -6481,19 +6481,19 @@
         <v>397144</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>363083</v>
+        <v>361712</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>432352</v>
+        <v>431660</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2662280877373282</v>
+        <v>0.2662280877373283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2433947325050783</v>
+        <v>0.242475760173877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2898296440454998</v>
+        <v>0.2893657535593166</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>603259</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>579439</v>
+        <v>580656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>622444</v>
+        <v>622146</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8382236016499522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8051263533874584</v>
+        <v>0.806817032070503</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8648821778588042</v>
+        <v>0.8644668562226179</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>604</v>
@@ -6531,19 +6531,19 @@
         <v>491341</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>466649</v>
+        <v>466858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>515341</v>
+        <v>515102</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6364053315957604</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6044228164309394</v>
+        <v>0.6046934304915836</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6674913878734708</v>
+        <v>0.6671811147873726</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1094</v>
@@ -6552,19 +6552,19 @@
         <v>1094600</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1059392</v>
+        <v>1060084</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1128661</v>
+        <v>1130032</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7337719122626718</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7101703559545003</v>
+        <v>0.7106342464406835</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7566052674949217</v>
+        <v>0.7575242398261232</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>81836</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67726</v>
+        <v>66824</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99737</v>
+        <v>98583</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1025426895190641</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08486144287165971</v>
+        <v>0.08373128878609563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1249720930726463</v>
+        <v>0.1235266015354904</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>265</v>
@@ -6677,19 +6677,19 @@
         <v>181036</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>161410</v>
+        <v>162232</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>200795</v>
+        <v>201277</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2177667376567985</v>
+        <v>0.2177667376567986</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1941579337134034</v>
+        <v>0.1951468165203185</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2415340516639126</v>
+        <v>0.2421146562957081</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -6698,19 +6698,19 @@
         <v>262873</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>239347</v>
+        <v>237262</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>293063</v>
+        <v>289126</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1613306963211912</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1468923947655457</v>
+        <v>0.1456129640173314</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1798588289028244</v>
+        <v>0.1774430929877937</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>716236</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>698335</v>
+        <v>699489</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730346</v>
+        <v>731248</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8974573104809359</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8750279069273539</v>
+        <v>0.8764733984645097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9151385571283405</v>
+        <v>0.9162687112139046</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>797</v>
@@ -6748,19 +6748,19 @@
         <v>650295</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>630536</v>
+        <v>630054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>669921</v>
+        <v>669099</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7822332623432015</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7584659483360876</v>
+        <v>0.7578853437042918</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8058420662865965</v>
+        <v>0.8048531834796816</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1462</v>
@@ -6769,19 +6769,19 @@
         <v>1366530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1336340</v>
+        <v>1340277</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1390056</v>
+        <v>1392141</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8386693036788088</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8201411710971755</v>
+        <v>0.8225569070122063</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8531076052344543</v>
+        <v>0.8543870359826687</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>454911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>418319</v>
+        <v>416148</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>494141</v>
+        <v>493635</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1287690830926663</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1184113524953561</v>
+        <v>0.117796707733312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1398739045250559</v>
+        <v>0.1397306671235299</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1548</v>
@@ -6894,19 +6894,19 @@
         <v>997910</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>943567</v>
+        <v>950080</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1046623</v>
+        <v>1044336</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2670383486971181</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2524961827463597</v>
+        <v>0.2542391733648293</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2800738435272774</v>
+        <v>0.2794617088889694</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2072</v>
@@ -6915,19 +6915,19 @@
         <v>1452821</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1391935</v>
+        <v>1391491</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1519532</v>
+        <v>1512079</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1998455739564969</v>
+        <v>0.1998455739564968</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1914702871060758</v>
+        <v>0.1914092555334616</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2090221462754771</v>
+        <v>0.2079970453229994</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>3077851</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3038621</v>
+        <v>3039127</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3114443</v>
+        <v>3116614</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8712309169073338</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8601260954749442</v>
+        <v>0.8602693328764698</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8815886475046439</v>
+        <v>0.8822032922666879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3819</v>
@@ -6965,19 +6965,19 @@
         <v>2739044</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2690331</v>
+        <v>2692618</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2793387</v>
+        <v>2786874</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.732961651302882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7199261564727225</v>
+        <v>0.7205382911110305</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7475038172536403</v>
+        <v>0.7457608266351707</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6671</v>
@@ -6986,19 +6986,19 @@
         <v>5816895</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5750184</v>
+        <v>5757637</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5877781</v>
+        <v>5878225</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8001544260435032</v>
+        <v>0.8001544260435031</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7909778537245227</v>
+        <v>0.7920029546770005</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8085297128939242</v>
+        <v>0.8085907444665382</v>
       </c>
     </row>
     <row r="30">
